--- a/Abundance_Estimation/Results/Results.xlsx
+++ b/Abundance_Estimation/Results/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sapta\Desktop\Atmospheric_Studies_VLMS\Abundance_Estimation\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8A235C-BC35-4584-9EC7-19B15A11BF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6007CA2-5B33-47BF-9F8E-DF12DC90B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3216" yWindow="36" windowWidth="17280" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
